--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2723076.5017663</v>
+        <v>2798606.171431107</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>169.0573019696732</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>68.90297685032048</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.8860385675338</v>
+        <v>205.1478855987997</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.8398776352871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>138.2970331133479</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3107022885809</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>163.0915657041714</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>157.1794734797562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>221.4211357805156</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1421,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.4322165318499</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675281</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.9016804540298</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.96146126744054</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.65520356665904</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>79.29281606331627</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.11742372468094</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002187</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498023</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>106.2407853566999</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>209.762955662315</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>140.0424879565122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>34.26584747916387</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>252.9697480666009</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056524</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385005</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>29.30655540895087</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,7 +3441,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>281.2000358033532</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385003</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>85.28230101217039</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3715,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>131.0780187496733</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.109440255352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2471.355450064197</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="W2" t="n">
-        <v>2177.709280319473</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="X2" t="n">
-        <v>2177.709280319473</v>
+        <v>2140.292562720626</v>
       </c>
       <c r="Y2" t="n">
-        <v>2177.709280319473</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430001</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236149</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.941371236149</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>871.6756726293982</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>871.6756726293982</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2502.42642870695</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2502.42642870695</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2502.42642870695</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>2171.363541363379</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1715.075343644822</v>
+        <v>2477.381446291977</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.1058742182938</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1696912903869</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903869</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903869</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903869</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903869</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>1215.177199392216</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>987.1876484941987</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5345,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617345004</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364831</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929529</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5497,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5580,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5595,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>862.6633074373279</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>693.7271245094211</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>543.6104850970853</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>395.6973915146922</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>248.8074440167818</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267568</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3858.603338895948</v>
+        <v>449.7218569567718</v>
       </c>
       <c r="C22" t="n">
-        <v>3689.667155968041</v>
+        <v>280.7856740288649</v>
       </c>
       <c r="D22" t="n">
-        <v>3689.667155968041</v>
+        <v>130.6690346165292</v>
       </c>
       <c r="E22" t="n">
-        <v>3689.667155968041</v>
+        <v>130.6690346165292</v>
       </c>
       <c r="F22" t="n">
-        <v>3689.667155968041</v>
+        <v>130.6690346165292</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>130.6690346165292</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>130.6690346165292</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>4148.020508932908</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>3858.603338895948</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X22" t="n">
-        <v>3858.603338895948</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y22" t="n">
-        <v>3858.603338895948</v>
+        <v>449.7218569567718</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843982</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.24660305754</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851653</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814692</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4313.446516539992</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C28" t="n">
-        <v>4144.510333612086</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D28" t="n">
-        <v>4037.196409009358</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426965</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746786</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576119</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="V28" t="n">
-        <v>4495.094981370232</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="W28" t="n">
-        <v>4495.094981370232</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="X28" t="n">
-        <v>4495.094981370232</v>
+        <v>1175.95939372345</v>
       </c>
       <c r="Y28" t="n">
-        <v>4495.094981370232</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3600.612452458608</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>3600.612452458608</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>3600.612452458608</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1464.304303407232</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491671</v>
+        <v>1464.304303407232</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>1240.518888196738</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.260917288848</v>
+        <v>985.8343999908507</v>
       </c>
       <c r="W31" t="n">
-        <v>3782.260917288848</v>
+        <v>696.41722995389</v>
       </c>
       <c r="X31" t="n">
-        <v>3782.260917288848</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y31" t="n">
-        <v>3782.260917288848</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143403</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V34" t="n">
-        <v>4117.121435937516</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W34" t="n">
-        <v>3861.596437890445</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.596437890445</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.4452354807079</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C37" t="n">
-        <v>415.509052552801</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471192</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1214.875830352495</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1214.875830352495</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>1214.875830352495</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X37" t="n">
-        <v>986.8862794544777</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.0937003109476</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="38">
@@ -7169,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7239,31 +7241,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>743.3431626812556</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>743.3431626812556</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>593.2265232689199</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>445.3134296865268</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>445.3134296865268</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471192</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7433,22 +7435,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.6488635960989</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>377.5322241837631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>229.61913060137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>696.5850465240057</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>696.5850465240057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7837,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298111</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298111</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10901,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>32.78140656352451</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11145,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.39976365008741</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>5.621317882561186</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.87051891449676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>126.8383648967185</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>87.20075240006132</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>77.30182173959105</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338454</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>42.37468766151245</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>76.47439673626232</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.391474690057009</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>75.69850492462893</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.55325026999006</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>75.26883114644244</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>137.940265689677</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>5.037316595224127</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>81.21126745120719</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>14.34302927325794</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848275</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="13">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934488</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934485</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687083</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26448,16 +26450,16 @@
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196586</v>
+        <v>-202152.4534196584</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948854</v>
+        <v>387815.4257948855</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.425794886</v>
+        <v>387815.4257948857</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903507</v>
+        <v>-33226.92741903532</v>
       </c>
       <c r="F6" t="n">
+        <v>491933.1090578613</v>
+      </c>
+      <c r="G6" t="n">
+        <v>491933.1090578615</v>
+      </c>
+      <c r="H6" t="n">
         <v>491933.1090578611</v>
       </c>
-      <c r="G6" t="n">
-        <v>491933.1090578609</v>
-      </c>
-      <c r="H6" t="n">
-        <v>491933.1090578614</v>
-      </c>
       <c r="I6" t="n">
-        <v>491933.1090578611</v>
+        <v>491933.109057861</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652685</v>
+        <v>315509.8898652683</v>
       </c>
       <c r="K6" t="n">
         <v>491933.1090578611</v>
       </c>
       <c r="L6" t="n">
-        <v>491933.1090578611</v>
+        <v>491933.1090578614</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.0938240239</v>
+        <v>357132.093824024</v>
       </c>
       <c r="N6" t="n">
         <v>491933.1090578613</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578609</v>
+        <v>491933.1090578611</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.1090578611</v>
+        <v>491933.1090578614</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>47.39101838798459</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>280.3379918670925</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.69861478456102</v>
+        <v>13.43676775329507</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.0361681064243</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>36.11867969562363</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>51.97117195339683</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>88.13260180411791</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>229.0584651762973</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>64.86073846146218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -30004,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.267200760523745e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
@@ -35735,16 +35737,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>315.1451088046326</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798606.171431107</v>
+        <v>2791589.156539395</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>328.4378163475054</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>169.0573019696732</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987997</v>
+        <v>195.7571515107713</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>138.2970331133479</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>132.0726054009035</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>163.0915657041714</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>10.12991191512389</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>280.9016804540298</v>
+        <v>24.07178406386518</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.65520356665904</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.11742372468094</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>9.945569935821421</v>
       </c>
       <c r="W25" t="n">
-        <v>183.4653217847138</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273999</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>209.762955662315</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.26584747916387</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385005</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29.30655540895087</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385003</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.28230101217039</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.00126484950797</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>539.16432787326</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2471.355450064197</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2471.355450064197</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2140.292562720626</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2140.292562720626</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>2140.292562720626</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="3">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430001</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150932</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027575</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036444</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430001</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2502.42642870695</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2502.42642870695</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="U5" t="n">
-        <v>2502.42642870695</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="V5" t="n">
-        <v>2171.363541363379</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W5" t="n">
-        <v>2171.363541363379</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X5" t="n">
-        <v>2171.363541363379</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1781.224209387568</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2090.781606227855</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2477.381446291977</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2477.381446291977</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2477.381446291977</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2477.381446291977</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2477.381446291977</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.7466045204288</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1215.177199392216</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="X13" t="n">
-        <v>987.1876484941987</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3950693506686</v>
+        <v>507.0827848727882</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>862.6633074373279</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>693.7271245094211</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>543.6104850970853</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>395.6973915146922</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>248.8074440167818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1044.311772267568</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1044.311772267568</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>1044.311772267568</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>449.7218569567718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>280.7856740288649</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>130.6690346165292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>130.6690346165292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>130.6690346165292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>130.6690346165292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>130.6690346165292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>670.514436100302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>449.7218569567718</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1154.00972167103</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>864.5925516340694</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,16 +6211,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,22 +6229,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1175.95939372345</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1175.95939372345</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1175.95939372345</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1464.304303407232</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1464.304303407232</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1240.518888196738</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1240.518888196738</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>985.8343999908507</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>696.41722995389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>468.4276790558727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.02050893291</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727023</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690063</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.918850690063</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471192</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.311772267568</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>816.3222213695503</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,28 +7192,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>743.3431626812556</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C40" t="n">
-        <v>743.3431626812556</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D40" t="n">
-        <v>593.2265232689199</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E40" t="n">
-        <v>445.3134296865268</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F40" t="n">
-        <v>445.3134296865268</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7329,19 +7329,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7362,22 +7362,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>964.1357418247858</v>
+        <v>1171.758263247898</v>
       </c>
       <c r="V40" t="n">
-        <v>964.1357418247858</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="W40" t="n">
-        <v>964.1357418247858</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="X40" t="n">
-        <v>964.1357418247858</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.3431626812556</v>
+        <v>696.2811958984814</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298111</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298111</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>32.78140656352451</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>5.621317882561186</v>
+        <v>262.4512142727258</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>126.8383648967185</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.30182173959105</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>242.1920733880066</v>
       </c>
       <c r="W25" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.47439673626232</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>75.69850492462893</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.26883114644244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>137.940265689677</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>81.21126745120719</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>270.2360875490694</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>7.125262335200631</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="6">
@@ -26316,19 +26316,19 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934484</v>
@@ -26337,25 +26337,25 @@
         <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934484</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26450,10 +26450,10 @@
         <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-202152.4534196584</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948855</v>
+        <v>387815.4257948858</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948856</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903532</v>
+        <v>-34201.5186787567</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578615</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652683</v>
+        <v>314535.2986055465</v>
       </c>
       <c r="K6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="L6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981395</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.093824024</v>
+        <v>356157.5025643023</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981394</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981397</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981397</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,16 +26792,16 @@
         <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>85.34635367328963</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>47.39101838798459</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329507</v>
+        <v>22.82750184132345</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>36.11867969562363</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>84.37571495675431</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>87.82394329977933</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080782</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>88.13260180411791</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>157.179890343927</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.267200760523745e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36615,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382562</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>315.1451088046326</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791589.156539395</v>
+        <v>2796528.419388427</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>328.4378163475054</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.20988753395294</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.7571515107713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>140.4147025184296</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>132.0726054009035</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.25910373324594</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>316.3220854655193</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>10.12991191512389</v>
+        <v>39.25266187003834</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>45.75333204430428</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>24.07178406386518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274034</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>9.945569935821421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>16.00126484950797</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>13.60014786677565</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>539.16432787326</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.3944877309076</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.562656169633</v>
+        <v>1315.737983561873</v>
       </c>
       <c r="C5" t="n">
-        <v>460.6001392292213</v>
+        <v>946.7754666214612</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>588.5097680147107</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>202.7215154164665</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>195.776014667263</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2332.53624174076</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2332.53624174076</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2332.53624174076</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1979.767586470646</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1606.301828209567</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1216.162496233755</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.1915732143555</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="C7" t="n">
-        <v>635.1915732143555</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0749338020197</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.9177683142668</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.9177683142668</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>632.9177683142668</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.9282174162495</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1156.635247324111</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>798.3695487173602</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="E10" t="n">
-        <v>550.798971477663</v>
+        <v>580.2158906240412</v>
       </c>
       <c r="F10" t="n">
-        <v>403.9090239797526</v>
+        <v>433.3259431261308</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4962,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011336</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.104817265284</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2050.644882483981</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>507.0827848727882</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>440.4391652839706</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>290.3225258716349</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>290.3225258716349</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>143.4325783737245</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>143.4325783737245</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>507.0827848727882</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X13" t="n">
-        <v>507.0827848727882</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.0827848727882</v>
+        <v>609.3753482118775</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805465</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5460,25 +5460,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1154.00972167103</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>864.5925516340694</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>636.6030007360521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514088</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,22 +6639,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
         <v>614.6238123952637</v>
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,28 +6928,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1171.758263247898</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>917.0737750420116</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>917.0737750420116</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>917.0737750420116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,7 +7596,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7611,10 +7611,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,22 +7663,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W46" t="n">
-        <v>720.4504516500522</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X46" t="n">
-        <v>492.4609007520348</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y46" t="n">
-        <v>271.6683216085047</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1604963232319</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>262.4512142727258</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>242.1920733880066</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>270.2360875490694</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.125262335200631</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.9228504698153</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934481</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934487</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,19 +26484,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196584</v>
+        <v>-202152.4534196586</v>
       </c>
       <c r="C6" t="n">
         <v>387815.4257948858</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948856</v>
+        <v>387815.4257948859</v>
       </c>
       <c r="E6" t="n">
-        <v>-34201.5186787567</v>
+        <v>-33324.38654500687</v>
       </c>
       <c r="F6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318886</v>
       </c>
       <c r="G6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="H6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="I6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="J6" t="n">
-        <v>314535.2986055465</v>
+        <v>315412.430739296</v>
       </c>
       <c r="K6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="L6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.649931889</v>
       </c>
       <c r="M6" t="n">
-        <v>356157.5025643023</v>
+        <v>357034.6346980518</v>
       </c>
       <c r="N6" t="n">
-        <v>490958.5177981394</v>
+        <v>491835.649931889</v>
       </c>
       <c r="O6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.649931889</v>
       </c>
       <c r="P6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.6499318892</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.34635367328963</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>178.935651416066</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.82750184132345</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>273.3694675023654</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>84.37571495675431</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.82394329977933</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>192.0227705087318</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>65.60828460674253</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080782</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>157.179890343927</v>
+        <v>128.0571403890126</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,7 +35497,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415663</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
